--- a/Январь 2025.xlsx
+++ b/Январь 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Дата</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>Отчет</t>
+  </si>
+  <si>
+    <t>Выходные</t>
+  </si>
+  <si>
+    <t>Учебный день</t>
+  </si>
+  <si>
+    <t>Верхний уровень: работа над циклограммой</t>
+  </si>
+  <si>
+    <t>Верхний уровень: работа над циклограммой и БД</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +535,7 @@
         <v>45658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="11">
         <v>0.375</v>
@@ -531,15 +543,14 @@
       <c r="D2" s="11">
         <v>0.375</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="11">
         <f>D2-C2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3">
-        <f>F2</f>
-        <v>0</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,7 +558,7 @@
         <v>45659</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11">
         <v>0.375</v>
@@ -555,7 +566,9 @@
       <c r="D3" s="11">
         <v>0.375</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F32" si="0">D3-C3</f>
         <v>0</v>
@@ -568,7 +581,7 @@
         <v>45660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11">
         <v>0.375</v>
@@ -576,7 +589,9 @@
       <c r="D4" s="11">
         <v>0.375</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -589,20 +604,21 @@
         <v>45661</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <f>SUM(F2:F5)</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,15 +626,13 @@
         <v>45662</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -631,7 +645,7 @@
         <v>45663</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11">
         <v>0.375</v>
@@ -639,7 +653,9 @@
       <c r="D7" s="11">
         <v>0.375</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -652,11 +668,17 @@
         <v>45664</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -669,19 +691,22 @@
         <v>45665</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <f>SUM(F2:F9)</f>
-        <v>0</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,7 +714,7 @@
         <v>45666</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11">
         <v>0.375</v>
@@ -697,7 +722,9 @@
       <c r="D10" s="11">
         <v>0.375</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -710,7 +737,7 @@
         <v>45667</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11">
         <v>0.375</v>
@@ -718,7 +745,9 @@
       <c r="D11" s="11">
         <v>0.375</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -731,20 +760,21 @@
         <v>45668</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <f>SUM(F6:F12)</f>
+        <v>0</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,15 +782,13 @@
         <v>45669</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -773,7 +801,7 @@
         <v>45670</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14" s="11">
         <v>0.375</v>
@@ -781,7 +809,9 @@
       <c r="D14" s="11">
         <v>0.375</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -794,11 +824,17 @@
         <v>45671</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -811,19 +847,22 @@
         <v>45672</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,18 +870,20 @@
         <v>45673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11">
         <v>0.375</v>
       </c>
       <c r="D17" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -852,7 +893,7 @@
         <v>45674</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" s="11">
         <v>0.375</v>
@@ -860,7 +901,9 @@
       <c r="D18" s="11">
         <v>0.375</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -873,20 +916,21 @@
         <v>45675</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <f>SUM(F13:F19)</f>
+        <v>0.125</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,15 +938,13 @@
         <v>45676</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -915,7 +957,7 @@
         <v>45677</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="11">
         <v>0.375</v>
@@ -923,7 +965,9 @@
       <c r="D21" s="11">
         <v>0.375</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -936,11 +980,17 @@
         <v>45678</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -953,19 +1003,22 @@
         <v>45679</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f>SUM(F17:F23)</f>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -973,18 +1026,20 @@
         <v>45680</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" s="11">
         <v>0.375</v>
       </c>
       <c r="D24" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
@@ -994,7 +1049,7 @@
         <v>45681</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="11">
         <v>0.375</v>
@@ -1015,20 +1070,21 @@
         <v>45682</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="13">
+        <f>SUM(F20:F26)</f>
+        <v>0.375</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,15 +1092,13 @@
         <v>45683</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1056,8 +1110,8 @@
       <c r="A28" s="1">
         <v>45684</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="11">
         <v>0.375</v>
@@ -1078,10 +1132,14 @@
         <v>45685</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.375</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
@@ -1095,27 +1153,28 @@
         <v>45686</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.375</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="13">
-        <f>SUM(F24:F30)</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45687</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>8</v>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="11">
         <v>0.375</v>
@@ -1136,7 +1195,7 @@
         <v>45688</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" s="11">
         <v>0.375</v>
@@ -1149,14 +1208,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="13">
+        <f>SUM(F27:F32)</f>
+        <v>0</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="H33" s="11">
         <f>SUM(F2:F32)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">

--- a/Январь 2025.xlsx
+++ b/Январь 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Дата</t>
   </si>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -180,8 +180,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,7 +488,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,12 +1054,14 @@
         <v>0.375</v>
       </c>
       <c r="D25" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
@@ -1081,9 +1082,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="3">
         <f>SUM(F20:F26)</f>
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1103,7 +1104,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,14 +1118,16 @@
         <v>0.375</v>
       </c>
       <c r="D28" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="12"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,7 +1148,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1169,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,7 +1190,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="12"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,17 +1211,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="3">
         <f>SUM(F27:F32)</f>
-        <v>0</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="H33" s="11">
+      <c r="H33" s="12">
         <f>SUM(F2:F32)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">

--- a/Январь 2025.xlsx
+++ b/Январь 2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>Дата</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Отчет</t>
-  </si>
-  <si>
     <t>Выходные</t>
   </si>
   <si>
@@ -71,6 +68,12 @@
   </si>
   <si>
     <t>Верхний уровень: работа над циклограммой и БД</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>*До вычета обедов</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,7 +546,7 @@
         <v>0.375</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="11">
         <f>D2-C2</f>
@@ -566,7 +569,7 @@
         <v>0.375</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F32" si="0">D3-C3</f>
@@ -589,7 +592,7 @@
         <v>0.375</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
@@ -608,7 +611,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -630,7 +633,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
@@ -653,7 +656,7 @@
         <v>0.375</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
@@ -676,7 +679,7 @@
         <v>0.375</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
@@ -699,7 +702,7 @@
         <v>0.375</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
@@ -722,7 +725,7 @@
         <v>0.375</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
@@ -745,7 +748,7 @@
         <v>0.375</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
@@ -764,7 +767,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
@@ -786,7 +789,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
@@ -809,7 +812,7 @@
         <v>0.375</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
@@ -832,7 +835,7 @@
         <v>0.375</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
@@ -852,14 +855,14 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="11">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D16-C16</f>
+        <v>0.125</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
@@ -875,14 +878,14 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="11">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>D17-C17</f>
+        <v>0</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -901,7 +904,7 @@
         <v>0.375</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
@@ -920,7 +923,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
@@ -942,7 +945,7 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
@@ -965,7 +968,7 @@
         <v>0.375</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
@@ -988,7 +991,7 @@
         <v>0.375</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
@@ -1011,7 +1014,7 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
@@ -1034,7 +1037,7 @@
         <v>0.625</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
@@ -1057,7 +1060,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
@@ -1076,7 +1079,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
@@ -1098,7 +1101,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="0"/>
@@ -1121,7 +1124,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="0"/>
@@ -1141,12 +1144,14 @@
         <v>0.375</v>
       </c>
       <c r="D29" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2"/>
@@ -1162,12 +1167,14 @@
         <v>0.375</v>
       </c>
       <c r="D30" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="2"/>
@@ -1183,12 +1190,14 @@
         <v>0.375</v>
       </c>
       <c r="D31" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="2"/>
@@ -1204,16 +1213,18 @@
         <v>0.375</v>
       </c>
       <c r="D32" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="G32" s="3">
         <f>SUM(F27:F32)</f>
-        <v>0.20833333333333337</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1221,11 +1232,14 @@
       <c r="B33" s="6"/>
       <c r="H33" s="12">
         <f>SUM(F2:F32)</f>
-        <v>1</v>
+        <v>1.7499999999999996</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
